--- a/output/frat/frat_3_conceptnet.xlsx
+++ b/output/frat/frat_3_conceptnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4794390-F012-450A-A9F7-874889127D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85EAA79-17D7-44E6-8289-576A9566C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9650" yWindow="3790" windowWidth="9820" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/output/frat/frat_3_conceptnet.xlsx
+++ b/output/frat/frat_3_conceptnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85EAA79-17D7-44E6-8289-576A9566C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8798DB90-AD69-E74C-8CD4-AEF8F9391659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9650" yWindow="3790" windowWidth="9820" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1186,17 +1186,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
